--- a/Shading Trees/Shading Trees.xlsx
+++ b/Shading Trees/Shading Trees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Shading Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4858092B-B79C-42BF-8B1E-5556D059BFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8122CF-80CC-4BAA-A53A-266CE5EF2F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="-14400" windowWidth="18600" windowHeight="10050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -37,26 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={55484578-0C18-4DA2-8585-32EC3AAE18B0}</author>
-  </authors>
-  <commentList>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    We cannot do like that. We should be able to evaluate the amount of CO2 stored by each banana plant every year. For the moment I correct this by a factor 10</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="270">
   <si>
     <t>level_row</t>
   </si>
@@ -823,9 +805,6 @@
     <t>Increase in the total soil carbon stocks</t>
   </si>
   <si>
-    <t>Reduction in carbon emissions (Direct soil emissions)</t>
-  </si>
-  <si>
     <t>Coffee-Banana Intercropping: Implementation guidance for policymakers and investors</t>
   </si>
   <si>
@@ -857,6 +836,18 @@
   </si>
   <si>
     <t>Residential</t>
+  </si>
+  <si>
+    <t>Z,VA,S</t>
+  </si>
+  <si>
+    <t>ton/ha</t>
+  </si>
+  <si>
+    <t>kton</t>
+  </si>
+  <si>
+    <t>Reduction in carbon emissions (Direct soil emissions)*</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1027,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1084,7 +1075,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,10 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,6 +1154,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1203,9 +1192,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Nicolo' Golinucci" id="{1700F20F-D42A-4A8F-B5C9-4CDB0429B235}" userId="S::10427081@polimi.it::af77fc62-6a85-4b10-b94f-9bff1a9c5999" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1503,14 +1490,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C35" dT="2020-07-03T15:56:29.86" personId="{1700F20F-D42A-4A8F-B5C9-4CDB0429B235}" id="{55484578-0C18-4DA2-8585-32EC3AAE18B0}">
-    <text>We cannot do like that. We should be able to evaluate the amount of CO2 stored by each banana plant every year. For the moment I correct this by a factor 10</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
@@ -1547,17 +1526,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-4.9350649350649242E-2</v>
+        <v>-2.4675324675324621E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,21 +1578,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="49">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="47">
         <f>main!C29</f>
         <v>0.99999999999999778</v>
       </c>
@@ -1666,79 +1645,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="55" t="s">
-        <v>264</v>
+      <c r="H1" s="52" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="47">
         <f>-main!C30</f>
         <v>2.9422988710693394E-6</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="51" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52">
+      <c r="A3" s="49">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="51">
         <f>main!C34</f>
         <v>-6.5496463190987543E-5</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="51" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1795,70 +1774,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>264</v>
+      <c r="G1" s="52" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="49">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="51">
         <f>main!C32</f>
         <v>-3.3158843793853162E-6</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="51" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="51">
         <f>main!C33</f>
         <v>4.666800237653407E-6</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="51" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1944,10 +1923,10 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1961,10 +1940,10 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1978,10 +1957,10 @@
       <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1995,10 +1974,10 @@
       <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2012,10 +1991,10 @@
       <c r="C6" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2029,10 +2008,10 @@
       <c r="C7" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2046,10 +2025,10 @@
       <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2063,10 +2042,10 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="30" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2080,7 +2059,7 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2094,7 +2073,7 @@
       <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2108,7 +2087,7 @@
       <c r="C12" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2122,7 +2101,7 @@
       <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="31" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2147,10 +2126,10 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2629,14 +2608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2666,20 +2645,20 @@
       <c r="D1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>220</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>178</v>
@@ -2689,7 +2668,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2699,7 +2678,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="42"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2710,15 +2689,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="36">
         <v>0.25</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2729,7 +2708,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="9" t="s">
         <v>183</v>
       </c>
@@ -2739,7 +2718,7 @@
       <c r="D4" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2750,7 +2729,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="9" t="s">
         <v>216</v>
       </c>
@@ -2760,7 +2739,7 @@
       <c r="D5" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2771,34 +2750,34 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="36">
         <v>2000</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <v>1800</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="45">
         <v>2360</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="45">
         <v>140</v>
       </c>
-      <c r="I6" s="48" t="s">
-        <v>198</v>
+      <c r="I6" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="9" t="s">
         <v>188</v>
       </c>
@@ -2808,11 +2787,11 @@
       <c r="D7" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="10"/>
       <c r="K7" s="24" t="s">
         <v>192</v>
@@ -2820,7 +2799,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="9" t="s">
         <v>241</v>
       </c>
@@ -2830,20 +2809,20 @@
       <c r="D8" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="45">
         <v>15</v>
       </c>
-      <c r="G8" s="48">
-        <v>20</v>
-      </c>
-      <c r="H8" s="48">
+      <c r="G8" s="45">
+        <v>19</v>
+      </c>
+      <c r="H8" s="45">
         <v>1</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>199</v>
+      <c r="I8" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="24" t="s">
@@ -2852,7 +2831,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="9" t="s">
         <v>240</v>
       </c>
@@ -2862,11 +2841,11 @@
       <c r="D9" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="10"/>
       <c r="K9" s="24" t="s">
         <v>246</v>
@@ -2874,7 +2853,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="9" t="s">
         <v>243</v>
       </c>
@@ -2884,7 +2863,7 @@
       <c r="D10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2895,7 +2874,7 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="9" t="s">
         <v>193</v>
       </c>
@@ -2903,7 +2882,7 @@
         <v>1.4</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -2912,7 +2891,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>194</v>
       </c>
@@ -2920,7 +2899,7 @@
         <v>1.4</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2929,7 +2908,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="11" t="s">
         <v>182</v>
       </c>
@@ -2937,7 +2916,7 @@
         <v>800000</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2948,7 +2927,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="11" t="s">
         <v>200</v>
       </c>
@@ -2956,7 +2935,7 @@
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2965,7 +2944,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="11" t="s">
         <v>250</v>
       </c>
@@ -2973,7 +2952,7 @@
         <v>-0.08</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2984,7 +2963,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>251</v>
       </c>
@@ -2992,7 +2971,7 @@
         <v>-0.02</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -3001,36 +2980,38 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C17" s="20">
         <v>3.8</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="40"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="55" t="s">
         <v>184</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="53">
         <v>1.4711494355346697E-4</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="44"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -3039,7 +3020,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>189</v>
       </c>
@@ -3047,20 +3028,20 @@
         <v>1.4E-2</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>195</v>
       </c>
@@ -3069,7 +3050,7 @@
         <v>-0.39999999999999991</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="44"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -3082,7 +3063,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
         <v>196</v>
       </c>
@@ -3091,7 +3072,7 @@
         <v>-0.39999999999999991</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -3104,15 +3085,15 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" s="18">
         <v>-0.4</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -3121,7 +3102,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>177</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3134,7 +3115,7 @@
       <c r="D23" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -3143,18 +3124,18 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="54">
         <f>C9*C8*C6*C5*C3/1000000</f>
         <v>4634.5950000000003</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -3165,7 +3146,7 @@
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="13" t="s">
         <v>252</v>
       </c>
@@ -3174,7 +3155,7 @@
         <v>-2.9422988710693394E-6</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -3187,16 +3168,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="21">
         <f>C14*C20*C18</f>
         <v>-4.9124213027930593E-6</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -3207,16 +3188,16 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <f>C21*C14*C18</f>
         <v>-4.9124213027930593E-6</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="46"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -3227,16 +3208,16 @@
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <f>C22*C14*C18</f>
         <v>-4.912421302793061E-6</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="46"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -3245,154 +3226,156 @@
       <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <f>C23*C18</f>
         <v>0.99999999999999778</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28" t="s">
+      <c r="E29" s="44"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <f>C25</f>
         <v>-2.9422988710693394E-6</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="27" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="29">
         <v>0</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="29">
         <f>-0.27*C14*C18</f>
         <v>-3.3158843793853162E-6</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <f>0.38*C14*C18</f>
         <v>4.666800237653407E-6</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="29">
         <f>-C24*C18/C10</f>
         <v>-6.5496463190987543E-5</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="27" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="32">
-        <f>-C17*C18*C5/1000</f>
-        <v>-4.9350649350649242E-2</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28" t="s">
+      <c r="B35" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="29">
+        <f>-C17*C18*C5/1000/20</f>
+        <v>-2.4675324675324621E-3</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="27" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3413,6 +3396,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Shading Trees/Shading Trees.xlsx
+++ b/Shading Trees/Shading Trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Shading Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8122CF-80CC-4BAA-A53A-266CE5EF2F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A4367F-0598-4B14-A020-E6B8D13C2414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="-14400" windowWidth="18600" windowHeight="10050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1189,10 +1189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,7 +1532,7 @@
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-2.4675324675324621E-3</v>
+        <v>-13.258051948051946</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1594,7 +1590,7 @@
       </c>
       <c r="C2" s="47">
         <f>main!C29</f>
-        <v>0.99999999999999778</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1688,7 +1684,7 @@
       </c>
       <c r="G2" s="47">
         <f>-main!C30</f>
-        <v>2.9422988710693394E-6</v>
+        <v>1.5808971834255593E-2</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>204</v>
@@ -1715,7 +1711,7 @@
       </c>
       <c r="G3" s="51">
         <f>main!C34</f>
-        <v>-6.5496463190987543E-5</v>
+        <v>-0.35191249672517683</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>204</v>
@@ -1811,7 +1807,7 @@
       </c>
       <c r="F2" s="51">
         <f>main!C32</f>
-        <v>-3.3158843793853162E-6</v>
+        <v>-1.781624677043734E-2</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>205</v>
@@ -1835,7 +1831,7 @@
       </c>
       <c r="F3" s="51">
         <f>main!C33</f>
-        <v>4.666800237653407E-6</v>
+        <v>2.5074717676911808E-2</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>204</v>
@@ -2615,7 +2611,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3008,7 +3004,7 @@
         <v>172</v>
       </c>
       <c r="C18" s="53">
-        <v>1.4711494355346697E-4</v>
+        <v>0.7904485917127797</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="41"/>
@@ -3152,7 +3148,7 @@
       </c>
       <c r="C25" s="21">
         <f>C16*C18</f>
-        <v>-2.9422988710693394E-6</v>
+        <v>-1.5808971834255593E-2</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="43"/>
@@ -3174,7 +3170,7 @@
       </c>
       <c r="C26" s="21">
         <f>C14*C20*C18</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>-2.6394439659907162E-2</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="43"/>
@@ -3194,7 +3190,7 @@
       </c>
       <c r="C27" s="21">
         <f>C21*C14*C18</f>
-        <v>-4.9124213027930593E-6</v>
+        <v>-2.6394439659907162E-2</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="43"/>
@@ -3214,7 +3210,7 @@
       </c>
       <c r="C28" s="21">
         <f>C22*C14*C18</f>
-        <v>-4.912421302793061E-6</v>
+        <v>-2.6394439659907173E-2</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="43"/>
@@ -3234,7 +3230,7 @@
       </c>
       <c r="C29" s="28">
         <f>C23*C18</f>
-        <v>0.99999999999999778</v>
+        <v>5373</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>190</v>
@@ -3256,7 +3252,7 @@
       </c>
       <c r="C30" s="29">
         <f>C25</f>
-        <v>-2.9422988710693394E-6</v>
+        <v>-1.5808971834255593E-2</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="44"/>
@@ -3299,7 +3295,7 @@
       </c>
       <c r="C32" s="29">
         <f>-0.27*C14*C18</f>
-        <v>-3.3158843793853162E-6</v>
+        <v>-1.781624677043734E-2</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="44"/>
@@ -3320,7 +3316,7 @@
       </c>
       <c r="C33" s="29">
         <f>0.38*C14*C18</f>
-        <v>4.666800237653407E-6</v>
+        <v>2.5074717676911808E-2</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="44"/>
@@ -3341,7 +3337,7 @@
       </c>
       <c r="C34" s="29">
         <f>-C24*C18/C10</f>
-        <v>-6.5496463190987543E-5</v>
+        <v>-0.35191249672517683</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="44"/>
@@ -3362,7 +3358,7 @@
       </c>
       <c r="C35" s="29">
         <f>-C17*C18*C5/1000/20</f>
-        <v>-2.4675324675324621E-3</v>
+        <v>-13.258051948051946</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>268</v>
